--- a/teaching/traditional_assets/database/data/indonesia/indonesia_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0698</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="E2">
-        <v>0.0292</v>
-      </c>
-      <c r="F2">
-        <v>0.1701</v>
+        <v>-0.1136</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,85 +609,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>275.805</v>
+        <v>66.62100000000001</v>
       </c>
       <c r="L2">
-        <v>0.1804981737816431</v>
+        <v>0.05390659136148108</v>
       </c>
       <c r="M2">
-        <v>66.35599999999999</v>
+        <v>68.786</v>
       </c>
       <c r="N2">
-        <v>0.009856803327391563</v>
+        <v>0.01177600493049374</v>
       </c>
       <c r="O2">
-        <v>0.2405902721125432</v>
+        <v>1.032497260623527</v>
       </c>
       <c r="P2">
-        <v>51.83</v>
+        <v>68.051</v>
       </c>
       <c r="Q2">
-        <v>0.007699049316696375</v>
+        <v>0.01165017462165309</v>
       </c>
       <c r="R2">
-        <v>0.1879226264933558</v>
+        <v>1.021464703321775</v>
       </c>
       <c r="S2">
-        <v>14.526</v>
+        <v>0.735</v>
       </c>
       <c r="T2">
-        <v>0.2189101211646272</v>
+        <v>0.01068531387200884</v>
       </c>
       <c r="U2">
-        <v>2212.36</v>
+        <v>4512.02</v>
       </c>
       <c r="V2">
-        <v>0.3286333927510398</v>
+        <v>0.7724474423063755</v>
       </c>
       <c r="W2">
-        <v>0.01271735424480054</v>
+        <v>0.00679457333354652</v>
       </c>
       <c r="X2">
-        <v>0.05488746080350808</v>
+        <v>0.04829558805457128</v>
       </c>
       <c r="Y2">
-        <v>-0.04217010655870754</v>
+        <v>-0.04150101472102476</v>
       </c>
       <c r="Z2">
-        <v>0.2608731207747416</v>
+        <v>0.1760883413890527</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05320672958619609</v>
+        <v>0.04667866565475505</v>
       </c>
       <c r="AC2">
-        <v>-0.05320672958619609</v>
+        <v>-0.04667866565475505</v>
       </c>
       <c r="AD2">
-        <v>4525.669</v>
+        <v>5069.532</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4525.669</v>
+        <v>5069.532</v>
       </c>
       <c r="AG2">
-        <v>2313.309</v>
+        <v>557.5119999999997</v>
       </c>
       <c r="AH2">
-        <v>0.4020076447442184</v>
+        <v>0.4646372030767505</v>
       </c>
       <c r="AI2">
-        <v>0.4668396348399245</v>
+        <v>0.5385538144603257</v>
       </c>
       <c r="AJ2">
-        <v>0.2557468185995636</v>
+        <v>0.08712878466791438</v>
       </c>
       <c r="AK2">
-        <v>0.3091870002695836</v>
+        <v>0.1137498235130412</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -707,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PT Bank Oke Indonesia Tbk (IDX:DNAR)</t>
+          <t>PT Bank Artha Graha Internasional Tbk (IDX:INPC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,10 +713,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.159</v>
-      </c>
-      <c r="E3">
-        <v>0.00631</v>
+        <v>-0.0132</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.345</v>
+        <v>-4.18</v>
       </c>
       <c r="L3">
-        <v>0.06377079482439925</v>
+        <v>-0.06541471048513302</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +740,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,37 +749,37 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>19.1</v>
+        <v>275.3</v>
       </c>
       <c r="V3">
-        <v>0.1796801505174036</v>
+        <v>3.507006369426752</v>
       </c>
       <c r="W3">
-        <v>0.01105769230769231</v>
+        <v>-0.01282602025161092</v>
       </c>
       <c r="X3">
-        <v>0.05210307451950158</v>
+        <v>0.04484883393502137</v>
       </c>
       <c r="Y3">
-        <v>-0.04104538221180927</v>
+        <v>-0.05767485418663229</v>
       </c>
       <c r="Z3">
-        <v>0.2832460732984294</v>
+        <v>0.3333681135225376</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05210307451950158</v>
+        <v>0.04484883393502137</v>
       </c>
       <c r="AC3">
-        <v>-0.05210307451950158</v>
+        <v>-0.04484883393502137</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -797,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-19.1</v>
+        <v>-275.3</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -806,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.2190366972477065</v>
+        <v>1.398882113821138</v>
       </c>
       <c r="AK3">
-        <v>-0.2131696428571429</v>
+        <v>5.145794392523364</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,10 +829,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0588</v>
+        <v>0.029</v>
       </c>
       <c r="E4">
-        <v>0.166</v>
+        <v>-0.0872</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.88</v>
+        <v>2.98</v>
       </c>
       <c r="L4">
-        <v>0.2076595744680851</v>
+        <v>0.136697247706422</v>
       </c>
       <c r="M4">
-        <v>1.79</v>
+        <v>0.893</v>
       </c>
       <c r="N4">
-        <v>0.0333955223880597</v>
+        <v>0.01419713831478537</v>
       </c>
       <c r="O4">
-        <v>0.3668032786885246</v>
+        <v>0.2996644295302013</v>
       </c>
       <c r="P4">
-        <v>1.79</v>
+        <v>0.893</v>
       </c>
       <c r="Q4">
-        <v>0.0333955223880597</v>
+        <v>0.01419713831478537</v>
       </c>
       <c r="R4">
-        <v>0.3668032786885246</v>
+        <v>0.2996644295302013</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,31 +877,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>47.7</v>
+        <v>113.2</v>
       </c>
       <c r="V4">
-        <v>0.8899253731343284</v>
+        <v>1.799682034976153</v>
       </c>
       <c r="W4">
-        <v>0.05191489361702128</v>
+        <v>0.02803386641580433</v>
       </c>
       <c r="X4">
-        <v>0.05210307451950158</v>
+        <v>0.04484883393502137</v>
       </c>
       <c r="Y4">
-        <v>-0.0001881809024803019</v>
+        <v>-0.01681496751921704</v>
       </c>
       <c r="Z4">
-        <v>0.5365296803652968</v>
+        <v>0.3720136518771331</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05210307451950158</v>
+        <v>0.04484883393502137</v>
       </c>
       <c r="AC4">
-        <v>-0.05210307451950158</v>
+        <v>-0.04484883393502137</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-47.7</v>
+        <v>-113.2</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -928,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-8.084745762711867</v>
+        <v>2.250497017892644</v>
       </c>
       <c r="AK4">
-        <v>-0.8139931740614336</v>
+        <v>9.129032258064512</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -948,7 +942,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PT Bank Tabungan Pensiunan Nasional Syariah Tbk (IDX:BTPS)</t>
+          <t>PT Bank Neo Commerce Tbk (IDX:BBYB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -956,8 +950,11 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="F5">
-        <v>0.249</v>
+      <c r="D5">
+        <v>0.0483</v>
+      </c>
+      <c r="E5">
+        <v>-0.147</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -972,82 +969,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>87.7</v>
+        <v>0.513</v>
       </c>
       <c r="L5">
-        <v>0.3663324979114453</v>
+        <v>0.03717391304347826</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>0.108</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.0007557732680195941</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>0.108</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.0007557732680195941</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>133.2</v>
+        <v>14.8</v>
       </c>
       <c r="V5">
-        <v>0.0565053238874984</v>
+        <v>0.1035689293212036</v>
       </c>
       <c r="W5">
-        <v>0.3523503415026115</v>
+        <v>0.007737556561085973</v>
       </c>
       <c r="X5">
-        <v>0.05210307451950158</v>
+        <v>0.04497760827992314</v>
       </c>
       <c r="Y5">
-        <v>0.3002472669831099</v>
+        <v>-0.03724005171883717</v>
       </c>
       <c r="Z5">
-        <v>2.344760039177277</v>
+        <v>0.2460375474692008</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05210307451950158</v>
+        <v>0.04494048121013099</v>
       </c>
       <c r="AC5">
-        <v>-0.05210307451950158</v>
+        <v>-0.04494048121013099</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.609</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.609</v>
       </c>
       <c r="AG5">
-        <v>-133.2</v>
+        <v>-14.191</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.004243636287619592</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.008108216059327112</v>
       </c>
       <c r="AJ5">
-        <v>-0.05988939346252415</v>
+        <v>-0.1102564700215214</v>
       </c>
       <c r="AK5">
-        <v>-0.6160962072155411</v>
+        <v>-0.2353048467061301</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P.T. Bank Ganesha Tbk (IDX:BGTG)</t>
+          <t>PT Bank Oke Indonesia Tbk (IDX:DNAR)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0698</v>
+        <v>0.324</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1088,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>-0.39</v>
+        <v>-0.624</v>
       </c>
       <c r="L6">
-        <v>-0.03786407766990291</v>
+        <v>-0.03949367088607595</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>0.078</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.0005539772727272727</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1112,58 +1112,61 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.078</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>15.6</v>
+        <v>17.4</v>
       </c>
       <c r="V6">
-        <v>0.2937853107344633</v>
+        <v>0.1235795454545454</v>
       </c>
       <c r="W6">
-        <v>-0.005032258064516129</v>
+        <v>-0.005740570377184912</v>
       </c>
       <c r="X6">
-        <v>0.05210307451950158</v>
+        <v>0.04502116246202668</v>
       </c>
       <c r="Y6">
-        <v>-0.05713533258401771</v>
+        <v>-0.05076173283921159</v>
       </c>
       <c r="Z6">
-        <v>0.1491024898668211</v>
+        <v>0.1763392857142857</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05210307451950158</v>
+        <v>0.04499145075660815</v>
       </c>
       <c r="AC6">
-        <v>-0.05210307451950158</v>
+        <v>-0.04499145075660815</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.803</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.803</v>
       </c>
       <c r="AG6">
-        <v>-15.6</v>
+        <v>-16.597</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.005670783811077449</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.005891286325319326</v>
       </c>
       <c r="AJ6">
-        <v>-0.416</v>
+        <v>-0.1336280122058243</v>
       </c>
       <c r="AK6">
-        <v>-0.2367223065250379</v>
+        <v>-0.1395843670891398</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1180,7 +1183,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PT Bank Yudha Bhakti Tbk (IDX:BBYB)</t>
+          <t>PT Bank BTPN Syariah Tbk (IDX:BTPS)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1189,7 +1192,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.373</v>
+        <v>0.137</v>
+      </c>
+      <c r="E7">
+        <v>0.394</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1204,82 +1210,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-12.7</v>
+        <v>62.5</v>
       </c>
       <c r="L7">
-        <v>-13.94072447859495</v>
+        <v>0.3306878306878307</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>22.757</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.010944548646179</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.364112</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>22.1</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.01062857692492666</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.3536</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.657</v>
+      </c>
+      <c r="T7">
+        <v>0.0288702377290504</v>
       </c>
       <c r="U7">
-        <v>10.4</v>
+        <v>122</v>
       </c>
       <c r="V7">
-        <v>0.08253968253968254</v>
+        <v>0.05867359207425575</v>
       </c>
       <c r="W7">
-        <v>-0.2409867172675522</v>
+        <v>0.1788780767029193</v>
       </c>
       <c r="X7">
-        <v>0.05214009047833602</v>
+        <v>0.04514674113038411</v>
       </c>
       <c r="Y7">
-        <v>-0.2931268077458882</v>
+        <v>0.1337313355725352</v>
       </c>
       <c r="Z7">
-        <v>0.02336137039696379</v>
+        <v>0.874190564292322</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05212256150621899</v>
+        <v>0.04505967603451601</v>
       </c>
       <c r="AC7">
-        <v>-0.05212256150621899</v>
+        <v>-0.04505967603451601</v>
       </c>
       <c r="AD7">
-        <v>0.189</v>
+        <v>20.5</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.189</v>
+        <v>20.5</v>
       </c>
       <c r="AG7">
-        <v>-10.211</v>
+        <v>-101.5</v>
       </c>
       <c r="AH7">
-        <v>0.001497753369945082</v>
+        <v>0.009762834555671968</v>
       </c>
       <c r="AI7">
-        <v>0.002842575463610522</v>
+        <v>0.05216284987277354</v>
       </c>
       <c r="AJ7">
-        <v>-0.08818626985292213</v>
+        <v>-0.05131964809384164</v>
       </c>
       <c r="AK7">
-        <v>-0.1820499563194209</v>
+        <v>-0.3745387453874539</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1296,7 +1305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PT Bank Artha Graha Internasional Tbk (IDX:INPC)</t>
+          <t>PT Bank Sinarmas Tbk (IDX:BSIM)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1305,10 +1314,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.00966</v>
+        <v>0.109</v>
       </c>
       <c r="E8">
-        <v>-0.248</v>
+        <v>-0.14</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1323,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.51</v>
+        <v>6.25</v>
       </c>
       <c r="L8">
-        <v>0.0363768115942029</v>
+        <v>0.03682969946965233</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1350,55 +1359,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>141.5</v>
+        <v>257.2</v>
       </c>
       <c r="V8">
-        <v>2.038904899135447</v>
+        <v>0.4051031658528902</v>
       </c>
       <c r="W8">
-        <v>0.008237610764686577</v>
+        <v>0.0149593106749641</v>
       </c>
       <c r="X8">
-        <v>0.05469170257247678</v>
+        <v>0.04594346254335287</v>
       </c>
       <c r="Y8">
-        <v>-0.04645409180779021</v>
+        <v>-0.03098415186838877</v>
       </c>
       <c r="Z8">
-        <v>0.276331597917501</v>
+        <v>0.6130780346820809</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.05264051201904621</v>
+        <v>0.04540771407707971</v>
       </c>
       <c r="AC8">
-        <v>-0.05264051201904621</v>
+        <v>-0.04540771407707971</v>
       </c>
       <c r="AD8">
-        <v>7.28</v>
+        <v>23</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>7.28</v>
+        <v>23</v>
       </c>
       <c r="AG8">
-        <v>-134.22</v>
+        <v>-234.2</v>
       </c>
       <c r="AH8">
-        <v>0.09494001043296818</v>
+        <v>0.03495972032223742</v>
       </c>
       <c r="AI8">
-        <v>0.0218500510234708</v>
+        <v>0.05608388198000487</v>
       </c>
       <c r="AJ8">
-        <v>2.070657204566492</v>
+        <v>-0.5844771649613176</v>
       </c>
       <c r="AK8">
-        <v>-0.700229549248748</v>
+        <v>-1.531720078482668</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1415,7 +1424,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PT Bank MNC Internasional Tbk (IDX:BABP)</t>
+          <t>PT Bank Ganesha Tbk (IDX:BGTG)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1423,9 +1432,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D9">
-        <v>0.139</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1439,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-2.54</v>
+        <v>-0.19</v>
       </c>
       <c r="L9">
-        <v>-0.07987421383647798</v>
+        <v>-0.01809523809523809</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1466,55 +1472,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>42.9</v>
+        <v>38.3</v>
       </c>
       <c r="V9">
-        <v>0.4745575221238937</v>
+        <v>0.6436974789915966</v>
       </c>
       <c r="W9">
-        <v>-0.02737068965517242</v>
+        <v>-0.002331288343558282</v>
       </c>
       <c r="X9">
-        <v>0.05488746080350808</v>
+        <v>0.04617937600516074</v>
       </c>
       <c r="Y9">
-        <v>-0.0822581504586805</v>
+        <v>-0.04851066434871902</v>
       </c>
       <c r="Z9">
-        <v>0.5362563237774031</v>
+        <v>0.1593323216995448</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.05267703353483791</v>
+        <v>0.04552308334227359</v>
       </c>
       <c r="AC9">
-        <v>-0.05267703353483791</v>
+        <v>-0.04552308334227359</v>
       </c>
       <c r="AD9">
-        <v>10.2</v>
+        <v>2.62</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>10.2</v>
+        <v>2.62</v>
       </c>
       <c r="AG9">
-        <v>-32.7</v>
+        <v>-35.68</v>
       </c>
       <c r="AH9">
-        <v>0.1013916500994036</v>
+        <v>0.04217643271088217</v>
       </c>
       <c r="AI9">
-        <v>0.09058614564831259</v>
+        <v>0.03286502759658806</v>
       </c>
       <c r="AJ9">
-        <v>-0.5667244367417678</v>
+        <v>-1.497900923593619</v>
       </c>
       <c r="AK9">
-        <v>-0.4691535150645624</v>
+        <v>-0.8614196040560117</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1531,7 +1537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PT. Bank Pembangunan Daerah Banten, Tbk (IDX:BEKS)</t>
+          <t>PT Bank China Construction Bank Indonesia Tbk (IDX:MCOR)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1540,7 +1546,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.334</v>
+        <v>0.09859999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.07719999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1555,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-7.36</v>
+        <v>5.12</v>
       </c>
       <c r="L10">
-        <v>-0.773109243697479</v>
+        <v>0.132987012987013</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1567,7 +1576,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1576,61 +1585,61 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>21.6</v>
+        <v>388</v>
       </c>
       <c r="V10">
-        <v>0.09358752166377816</v>
+        <v>1.022397891963109</v>
       </c>
       <c r="W10">
-        <v>-0.16</v>
+        <v>0.02782608695652174</v>
       </c>
       <c r="X10">
-        <v>0.05383519044416339</v>
+        <v>0.04725341513953257</v>
       </c>
       <c r="Y10">
-        <v>-0.2138351904441634</v>
+        <v>-0.01942732818301083</v>
       </c>
       <c r="Z10">
-        <v>0.1718411552346571</v>
+        <v>0.248868778280543</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.05295641519048433</v>
+        <v>0.04644075812269821</v>
       </c>
       <c r="AC10">
-        <v>-0.05295641519048433</v>
+        <v>-0.04644075812269821</v>
       </c>
       <c r="AD10">
-        <v>16.2</v>
+        <v>30.2</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>16.2</v>
+        <v>30.2</v>
       </c>
       <c r="AG10">
-        <v>-5.400000000000002</v>
+        <v>-357.8</v>
       </c>
       <c r="AH10">
-        <v>0.06558704453441296</v>
+        <v>0.07371247254088358</v>
       </c>
       <c r="AI10">
-        <v>0.2842105263157895</v>
+        <v>0.06944125086226718</v>
       </c>
       <c r="AJ10">
-        <v>-0.02395740905057676</v>
+        <v>-16.48847926267282</v>
       </c>
       <c r="AK10">
-        <v>-0.152542372881356</v>
+        <v>-7.628997867803842</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1647,7 +1656,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PT Bank Sinarmas Tbk (IDX:BSIM)</t>
+          <t>PT Bank MNC Internasional Tbk (IDX:BABP)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1656,7 +1665,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.08500000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1671,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>-13.8</v>
+        <v>0.954</v>
       </c>
       <c r="L11">
-        <v>-0.1124694376528117</v>
+        <v>0.02497382198952879</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1683,7 +1692,7 @@
         <v>-0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1692,61 +1701,61 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>207.3</v>
+        <v>95</v>
       </c>
       <c r="V11">
-        <v>0.2898084719698029</v>
+        <v>1.053215077605322</v>
       </c>
       <c r="W11">
-        <v>-0.0406480117820324</v>
+        <v>0.009316406249999999</v>
       </c>
       <c r="X11">
-        <v>0.05439037408679114</v>
+        <v>0.04933776096960998</v>
       </c>
       <c r="Y11">
-        <v>-0.09503838586882354</v>
+        <v>-0.04002135471960998</v>
       </c>
       <c r="Z11">
-        <v>0.5477678571428573</v>
+        <v>0.5480631276901003</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.05320672958619609</v>
+        <v>0.0469165731868119</v>
       </c>
       <c r="AC11">
-        <v>-0.05320672958619609</v>
+        <v>-0.0469165731868119</v>
       </c>
       <c r="AD11">
-        <v>66.3</v>
+        <v>13.4</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>66.3</v>
+        <v>13.4</v>
       </c>
       <c r="AG11">
-        <v>-141</v>
+        <v>-81.59999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.08482599795291709</v>
+        <v>0.1293436293436293</v>
       </c>
       <c r="AI11">
-        <v>0.1369551745507127</v>
+        <v>0.1154177433247201</v>
       </c>
       <c r="AJ11">
-        <v>-0.2455162806895351</v>
+        <v>-9.488372093023246</v>
       </c>
       <c r="AK11">
-        <v>-0.509393063583815</v>
+        <v>-3.86729857819905</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1763,7 +1772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PT Bank Rakyat Indonesia Agroniaga Tbk (IDX:AGRO)</t>
+          <t>PT Bank IBK Indonesia Tbk (IDX:AGRS)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1771,104 +1780,95 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D12">
-        <v>0.138</v>
-      </c>
-      <c r="E12">
-        <v>0.0476</v>
-      </c>
       <c r="G12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12">
-        <v>3.73</v>
+        <v>-20.7</v>
       </c>
       <c r="L12">
-        <v>0.1295138888888889</v>
+        <v>19.16666666666666</v>
       </c>
       <c r="M12">
-        <v>2.88</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.009464344396976666</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>0.7721179624664879</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.88</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.009464344396976666</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>0.7721179624664879</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>148.7</v>
+        <v>113.1</v>
       </c>
       <c r="V12">
-        <v>0.4886625041077883</v>
+        <v>0.6871202916160388</v>
       </c>
       <c r="W12">
-        <v>0.01271735424480054</v>
+        <v>-0.2107942973523421</v>
       </c>
       <c r="X12">
-        <v>0.05528201106525692</v>
+        <v>0.06623536662284331</v>
       </c>
       <c r="Y12">
-        <v>-0.04256465682045638</v>
+        <v>-0.2770296639751855</v>
       </c>
       <c r="Z12">
-        <v>0.1809045226130653</v>
+        <v>-0.01443850267379679</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.05326261981623336</v>
+        <v>0.05379931714478914</v>
       </c>
       <c r="AC12">
-        <v>-0.05326261981623336</v>
+        <v>-0.05379931714478914</v>
       </c>
       <c r="AD12">
-        <v>39.2</v>
+        <v>116.5</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>39.2</v>
+        <v>116.5</v>
       </c>
       <c r="AG12">
-        <v>-109.5</v>
+        <v>3.400000000000006</v>
       </c>
       <c r="AH12">
-        <v>0.1141193595342067</v>
+        <v>0.4144432586268232</v>
       </c>
       <c r="AI12">
-        <v>0.1112688049957423</v>
+        <v>0.4524271844660194</v>
       </c>
       <c r="AJ12">
-        <v>-0.5621149897330594</v>
+        <v>0.02023809523809527</v>
       </c>
       <c r="AK12">
-        <v>-0.5378192534381138</v>
+        <v>0.02354570637119117</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PT Bank China Construction Bank Indonesia Tbk (IDX:MCOR)</t>
+          <t>PT Bank QNB Indonesia Tbk (IDX:BKSW)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1893,29 +1893,23 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D13">
-        <v>0.143</v>
-      </c>
-      <c r="E13">
-        <v>0.0292</v>
-      </c>
       <c r="G13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K13">
-        <v>4.57</v>
+        <v>-41.8</v>
       </c>
       <c r="L13">
-        <v>0.105787037037037</v>
+        <v>6.852459016393443</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1924,7 +1918,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -1933,61 +1927,61 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>46</v>
+        <v>11.6</v>
       </c>
       <c r="V13">
-        <v>0.2977346278317152</v>
+        <v>0.07435897435897436</v>
       </c>
       <c r="W13">
-        <v>0.02700945626477542</v>
+        <v>-0.1278678494952585</v>
       </c>
       <c r="X13">
-        <v>0.05691075676725399</v>
+        <v>0.06944817126377494</v>
       </c>
       <c r="Y13">
-        <v>-0.02990130050247857</v>
+        <v>-0.1973160207590334</v>
       </c>
       <c r="Z13">
-        <v>0.4211716762047753</v>
+        <v>-0.01761478486861103</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05375984821991334</v>
+        <v>0.05613496132378207</v>
       </c>
       <c r="AC13">
-        <v>-0.05375984821991334</v>
+        <v>-0.05613496132378207</v>
       </c>
       <c r="AD13">
-        <v>30.1</v>
+        <v>127</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>30.1</v>
+        <v>127</v>
       </c>
       <c r="AG13">
-        <v>-15.9</v>
+        <v>115.4</v>
       </c>
       <c r="AH13">
-        <v>0.1630552546045504</v>
+        <v>0.4487632508833923</v>
       </c>
       <c r="AI13">
-        <v>0.1405885100420364</v>
+        <v>0.3551454138702461</v>
       </c>
       <c r="AJ13">
-        <v>-0.1147186147186147</v>
+        <v>0.4252026529108328</v>
       </c>
       <c r="AK13">
-        <v>-0.09458655562165377</v>
+        <v>0.3335260115606937</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2004,7 +1998,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PT Bank IBK Indonesia Tbk (IDX:AGRS)</t>
+          <t>PT. Bank Pembangunan Daerah Banten, Tbk (IDX:BEKS)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2013,7 +2007,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0331</v>
+        <v>-0.255</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2028,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>-4.27</v>
+        <v>-11.2</v>
       </c>
       <c r="L14">
-        <v>-0.5220048899755501</v>
+        <v>-1.885521885521885</v>
       </c>
       <c r="M14">
-        <v>0.126</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.001842105263157895</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>-0.02950819672131148</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2052,61 +2046,58 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.126</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>6.46</v>
+        <v>2.62</v>
       </c>
       <c r="V14">
-        <v>0.09444444444444444</v>
+        <v>0.04366666666666667</v>
       </c>
       <c r="W14">
-        <v>-0.1147849462365591</v>
+        <v>-0.2745098039215687</v>
       </c>
       <c r="X14">
-        <v>0.0579116216660364</v>
+        <v>0.07038178390885047</v>
       </c>
       <c r="Y14">
-        <v>-0.1726965679025955</v>
+        <v>-0.3448915878304191</v>
       </c>
       <c r="Z14">
-        <v>0.3645276292335115</v>
+        <v>0.1677966101694915</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.05458205753235648</v>
+        <v>0.05636712372915018</v>
       </c>
       <c r="AC14">
-        <v>-0.05458205753235648</v>
+        <v>-0.05636712372915018</v>
       </c>
       <c r="AD14">
-        <v>16.1</v>
+        <v>50.7</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>16.1</v>
+        <v>50.7</v>
       </c>
       <c r="AG14">
-        <v>9.640000000000001</v>
+        <v>48.08000000000001</v>
       </c>
       <c r="AH14">
-        <v>0.1905325443786982</v>
+        <v>0.4579945799457995</v>
       </c>
       <c r="AI14">
-        <v>0.1396357328707719</v>
+        <v>0.6466836734693877</v>
       </c>
       <c r="AJ14">
-        <v>0.123526396719631</v>
+        <v>0.4448556624722428</v>
       </c>
       <c r="AK14">
-        <v>0.08857037853730247</v>
+        <v>0.6344681974135656</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2123,7 +2114,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PT Bank QNB Indonesia Tbk (IDX:BKSW)</t>
+          <t>PT Bank Victoria International Tbk (IDX:BVIC)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2132,10 +2123,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.0177</v>
-      </c>
-      <c r="E15">
-        <v>0.157</v>
+        <v>-0.09810000000000001</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2150,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.800000000000001</v>
+        <v>-2.73</v>
       </c>
       <c r="L15">
-        <v>0.2085106382978724</v>
+        <v>-0.1578034682080925</v>
       </c>
       <c r="M15">
-        <v>14.4</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.05436013590033976</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>1.469387755102041</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>-0</v>
@@ -2171,64 +2159,61 @@
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>14.4</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>88.2</v>
+        <v>43.4</v>
       </c>
       <c r="V15">
-        <v>0.332955832389581</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="W15">
-        <v>0.03814713896457766</v>
+        <v>-0.01285916156382478</v>
       </c>
       <c r="X15">
-        <v>0.0621267744580587</v>
+        <v>0.09853966461701757</v>
       </c>
       <c r="Y15">
-        <v>-0.02397963549348103</v>
+        <v>-0.1113988261808423</v>
       </c>
       <c r="Z15">
-        <v>0.296363556110449</v>
+        <v>0.04985590778097983</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.05586136529435327</v>
+        <v>0.05866799169168373</v>
       </c>
       <c r="AC15">
-        <v>-0.05586136529435327</v>
+        <v>-0.05866799169168373</v>
       </c>
       <c r="AD15">
-        <v>107.6</v>
+        <v>130.6</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>107.6</v>
+        <v>130.6</v>
       </c>
       <c r="AG15">
-        <v>19.39999999999999</v>
+        <v>87.19999999999999</v>
       </c>
       <c r="AH15">
-        <v>0.2888590604026846</v>
+        <v>0.6398824105830475</v>
       </c>
       <c r="AI15">
-        <v>0.2476409666283084</v>
+        <v>0.415262321144674</v>
       </c>
       <c r="AJ15">
-        <v>0.06823777699613083</v>
+        <v>0.5426260112009956</v>
       </c>
       <c r="AK15">
-        <v>0.05602079122148425</v>
+        <v>0.3216525267428992</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2254,13 +2239,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.113</v>
+        <v>0.0388</v>
       </c>
       <c r="E16">
-        <v>0.119</v>
-      </c>
-      <c r="F16">
-        <v>0.09119999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2275,28 +2257,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>156.1</v>
+        <v>35.5</v>
       </c>
       <c r="L16">
-        <v>0.2251225843668878</v>
+        <v>0.06639236955302039</v>
       </c>
       <c r="M16">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="N16">
-        <v>0.02449737086297557</v>
+        <v>0.02980308674827036</v>
       </c>
       <c r="O16">
-        <v>0.253683536194747</v>
+        <v>1.104225352112676</v>
       </c>
       <c r="P16">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="Q16">
-        <v>0.02449737086297557</v>
+        <v>0.02980308674827036</v>
       </c>
       <c r="R16">
-        <v>0.253683536194747</v>
+        <v>1.104225352112676</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2305,55 +2287,55 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>696.7</v>
+        <v>2744.5</v>
       </c>
       <c r="V16">
-        <v>0.4309928858645222</v>
+        <v>2.08659621379153</v>
       </c>
       <c r="W16">
-        <v>0.1000961846745752</v>
+        <v>0.02086884956792664</v>
       </c>
       <c r="X16">
-        <v>0.1018729184176515</v>
+        <v>0.1295161671269875</v>
       </c>
       <c r="Y16">
-        <v>-0.001776733743076298</v>
+        <v>-0.1086473175590609</v>
       </c>
       <c r="Z16">
-        <v>0.1983352878922227</v>
+        <v>0.12538104394316</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.05889583961436903</v>
+        <v>0.06076499524611169</v>
       </c>
       <c r="AC16">
-        <v>-0.05889583961436903</v>
+        <v>-0.06076499524611169</v>
       </c>
       <c r="AD16">
-        <v>3260.2</v>
+        <v>3685.5</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>3260.2</v>
+        <v>3685.5</v>
       </c>
       <c r="AG16">
-        <v>2563.5</v>
+        <v>941</v>
       </c>
       <c r="AH16">
-        <v>0.6685258473968052</v>
+        <v>0.7369820828667413</v>
       </c>
       <c r="AI16">
-        <v>0.6571261564509303</v>
+        <v>0.7567451028705187</v>
       </c>
       <c r="AJ16">
-        <v>0.6132775119617225</v>
+        <v>0.4170544697070425</v>
       </c>
       <c r="AK16">
-        <v>0.601111475871125</v>
+        <v>0.4426777061673802</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2378,6 +2360,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D17">
+        <v>0.121</v>
+      </c>
+      <c r="E17">
+        <v>0.146</v>
+      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2391,28 +2379,28 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>40.1</v>
+        <v>33.4</v>
       </c>
       <c r="L17">
-        <v>0.3893203883495146</v>
+        <v>0.361863488624052</v>
       </c>
       <c r="M17">
-        <v>7.56</v>
+        <v>5.75</v>
       </c>
       <c r="N17">
-        <v>0.01922196796338673</v>
+        <v>0.01640045636052481</v>
       </c>
       <c r="O17">
-        <v>0.1885286783042394</v>
+        <v>0.1721556886227545</v>
       </c>
       <c r="P17">
-        <v>7.56</v>
+        <v>5.75</v>
       </c>
       <c r="Q17">
-        <v>0.01922196796338673</v>
+        <v>0.01640045636052481</v>
       </c>
       <c r="R17">
-        <v>0.1885286783042394</v>
+        <v>0.1721556886227545</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2421,55 +2409,55 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>383.3</v>
+        <v>188.2</v>
       </c>
       <c r="V17">
-        <v>0.9745741164505467</v>
+        <v>0.5367940673131774</v>
       </c>
       <c r="W17">
-        <v>0.09342963653308481</v>
+        <v>0.06910821435961101</v>
       </c>
       <c r="X17">
-        <v>0.09156292113528067</v>
+        <v>0.1087982051923459</v>
       </c>
       <c r="Y17">
-        <v>0.001866715397804142</v>
+        <v>-0.03968999083273486</v>
       </c>
       <c r="Z17">
-        <v>0.1736930860033727</v>
+        <v>0.147703632581213</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.06010786744684291</v>
+        <v>0.06192814591249261</v>
       </c>
       <c r="AC17">
-        <v>-0.06010786744684291</v>
+        <v>-0.06192814591249261</v>
       </c>
       <c r="AD17">
-        <v>628.9</v>
+        <v>742</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>628.9</v>
+        <v>742</v>
       </c>
       <c r="AG17">
-        <v>245.6</v>
+        <v>553.8</v>
       </c>
       <c r="AH17">
-        <v>0.6152416356877323</v>
+        <v>0.6791140399048142</v>
       </c>
       <c r="AI17">
-        <v>0.5654558532638014</v>
+        <v>0.6069529652351738</v>
       </c>
       <c r="AJ17">
-        <v>0.3844107059007669</v>
+        <v>0.6123396727111897</v>
       </c>
       <c r="AK17">
-        <v>0.3369460831389765</v>
+        <v>0.5354345934448419</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2495,10 +2483,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.679</v>
+        <v>0.536</v>
       </c>
       <c r="E18">
-        <v>-0.106</v>
+        <v>-0.234</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2513,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.63</v>
+        <v>0.828</v>
       </c>
       <c r="L18">
-        <v>0.05854838709677419</v>
+        <v>0.02620253164556962</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2540,179 +2528,60 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>165.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="V18">
-        <v>2.238482384823848</v>
+        <v>1.658444022770398</v>
       </c>
       <c r="W18">
-        <v>0.0259656652360515</v>
+        <v>0.005851590106007067</v>
       </c>
       <c r="X18">
-        <v>0.1090146932514037</v>
+        <v>0.1171505752125406</v>
       </c>
       <c r="Y18">
-        <v>-0.08304902801535222</v>
+        <v>-0.1112989851065336</v>
       </c>
       <c r="Z18">
-        <v>0.4101668452877123</v>
+        <v>0.2162310113589709</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.06117864874630584</v>
+        <v>0.06258563253256279</v>
       </c>
       <c r="AC18">
-        <v>-0.06117864874630584</v>
+        <v>-0.06258563253256279</v>
       </c>
       <c r="AD18">
-        <v>170.2</v>
+        <v>126.1</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>170.2</v>
+        <v>126.1</v>
       </c>
       <c r="AG18">
-        <v>5</v>
+        <v>38.69999999999999</v>
       </c>
       <c r="AH18">
-        <v>0.6975409836065574</v>
+        <v>0.7052572706935122</v>
       </c>
       <c r="AI18">
-        <v>0.4054311576941401</v>
+        <v>0.3658253553814911</v>
       </c>
       <c r="AJ18">
-        <v>0.06345177664974619</v>
+        <v>0.4234135667396061</v>
       </c>
       <c r="AK18">
-        <v>0.01963864886095837</v>
+        <v>0.150408083948698</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PT Bank Victoria International Tbk (IDX:BVIC)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Banks (Regional)</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>-0.0294</v>
-      </c>
-      <c r="E19">
-        <v>-0.191</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>3.5</v>
-      </c>
-      <c r="L19">
-        <v>0.117056856187291</v>
-      </c>
-      <c r="M19">
-        <v>-0</v>
-      </c>
-      <c r="N19">
-        <v>-0</v>
-      </c>
-      <c r="O19">
-        <v>-0</v>
-      </c>
-      <c r="P19">
-        <v>-0</v>
-      </c>
-      <c r="Q19">
-        <v>-0</v>
-      </c>
-      <c r="R19">
-        <v>-0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>38.5</v>
-      </c>
-      <c r="V19">
-        <v>0.711645101663586</v>
-      </c>
-      <c r="W19">
-        <v>0.01881720430107527</v>
-      </c>
-      <c r="X19">
-        <v>0.1311069447613362</v>
-      </c>
-      <c r="Y19">
-        <v>-0.112289740460261</v>
-      </c>
-      <c r="Z19">
-        <v>0.09558823529411764</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0.06201716402999515</v>
-      </c>
-      <c r="AC19">
-        <v>-0.06201716402999515</v>
-      </c>
-      <c r="AD19">
-        <v>173.2</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>173.2</v>
-      </c>
-      <c r="AG19">
-        <v>134.7</v>
-      </c>
-      <c r="AH19">
-        <v>0.7619885613726353</v>
-      </c>
-      <c r="AI19">
-        <v>0.4492866407263294</v>
-      </c>
-      <c r="AJ19">
-        <v>0.7134533898305084</v>
-      </c>
-      <c r="AK19">
-        <v>0.3881844380403458</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
         <v>0</v>
       </c>
     </row>
